--- a/Lin_Rohner_lab4/Data_lab4A_stiction torque/data_lab4A_stiction torque_05_ccw.xlsx
+++ b/Lin_Rohner_lab4/Data_lab4A_stiction torque/data_lab4A_stiction torque_05_ccw.xlsx
@@ -76,10 +76,10 @@
         <v>-0.003550</v>
       </c>
       <c r="C2" s="1">
-        <v>-12.090015</v>
+        <v>2.239148</v>
       </c>
       <c r="D2" s="1">
-        <v>0.049072</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="3">
@@ -87,10 +87,10 @@
         <v>1.000000</v>
       </c>
       <c r="B3" s="1">
-        <v>0.000735</v>
+        <v>-0.007835</v>
       </c>
       <c r="C3" s="1">
-        <v>-12.040942</v>
+        <v>2.288220</v>
       </c>
       <c r="D3" s="1">
         <v>0.049072</v>
@@ -101,10 +101,10 @@
         <v>2.000000</v>
       </c>
       <c r="B4" s="1">
-        <v>0.005020</v>
+        <v>-0.012120</v>
       </c>
       <c r="C4" s="1">
-        <v>-12.090015</v>
+        <v>2.288220</v>
       </c>
       <c r="D4" s="1">
         <v>0.049072</v>
@@ -115,13 +115,13 @@
         <v>3.000000</v>
       </c>
       <c r="B5" s="1">
-        <v>0.009305</v>
+        <v>-0.016405</v>
       </c>
       <c r="C5" s="1">
-        <v>-12.237232</v>
+        <v>2.239148</v>
       </c>
       <c r="D5" s="1">
-        <v>0.147217</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="6">
@@ -129,13 +129,13 @@
         <v>4.000000</v>
       </c>
       <c r="B6" s="1">
-        <v>0.013590</v>
+        <v>-0.020690</v>
       </c>
       <c r="C6" s="1">
-        <v>-12.629812</v>
+        <v>2.484510</v>
       </c>
       <c r="D6" s="1">
-        <v>0.392580</v>
+        <v>0.245362</v>
       </c>
     </row>
     <row r="7">
@@ -143,13 +143,27 @@
         <v>5.000000</v>
       </c>
       <c r="B7" s="1">
-        <v>0.017875</v>
+        <v>-0.024975</v>
       </c>
       <c r="C7" s="1">
-        <v>-13.316827</v>
+        <v>2.828018</v>
       </c>
       <c r="D7" s="1">
-        <v>0.687015</v>
+        <v>0.588870</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.000000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.029260</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.171525</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.932377</v>
       </c>
     </row>
   </sheetData>
